--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value655.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value655.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.982457488505821</v>
+        <v>1.240143656730652</v>
       </c>
       <c r="B1">
-        <v>2.491088829586667</v>
+        <v>2.357472658157349</v>
       </c>
       <c r="C1">
-        <v>2.605751089818495</v>
+        <v>3.201707601547241</v>
       </c>
       <c r="D1">
-        <v>3.237405936290713</v>
+        <v>3.544786930084229</v>
       </c>
       <c r="E1">
-        <v>1.196425214565044</v>
+        <v>1.107582211494446</v>
       </c>
     </row>
   </sheetData>
